--- a/media/spreadsheets/Timing.xlsx
+++ b/media/spreadsheets/Timing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Visualization" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="VC32+PGO" sheetId="6" r:id="rId6"/>
     <sheet name="VC64" sheetId="7" r:id="rId7"/>
     <sheet name="VC64+PGO" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1144,13 +1145,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,13 +1201,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,11 +1222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141730944"/>
-        <c:axId val="141732864"/>
+        <c:axId val="90807680"/>
+        <c:axId val="96446336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141730944"/>
+        <c:axId val="90807680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141732864"/>
+        <c:crossAx val="96446336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1268,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141732864"/>
+        <c:axId val="96446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1306,7 +1307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141730944"/>
+        <c:crossAx val="90807680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,7 +1359,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Open Encoding+No Forwarding</c:v>
+              <c:v>Open Encoding+Yes Forwarding</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1444,13 +1445,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,13 +1506,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,13 +1562,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,13 +1626,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,11 +1647,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141281536"/>
-        <c:axId val="141767040"/>
+        <c:axId val="136300032"/>
+        <c:axId val="136301952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141281536"/>
+        <c:axId val="136300032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141767040"/>
+        <c:crossAx val="136301952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1693,7 +1694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141767040"/>
+        <c:axId val="136301952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1731,7 +1732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141281536"/>
+        <c:crossAx val="136300032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1783,7 +1784,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Open Encoding+Unified Syntax</c:v>
+              <c:v>Open Encoding+Special Syntax</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1869,13 +1870,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,13 +1931,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,13 +1995,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,13 +2051,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,11 +2072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141818880"/>
-        <c:axId val="141825152"/>
+        <c:axId val="142378112"/>
+        <c:axId val="142390784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141818880"/>
+        <c:axId val="142378112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141825152"/>
+        <c:crossAx val="142390784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141825152"/>
+        <c:axId val="142390784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2156,7 +2157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141818880"/>
+        <c:crossAx val="142378112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,12 +2188,306 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Selected Configuration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30452076919972743"/>
+          <c:y val="5.1480051480051477E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.607174103237096E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.85517404988683521"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Visualization!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Visualization!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Repetitive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Visualization!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Visualization!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Visualization!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Repetitive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Visualization!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="172083840"/>
+        <c:axId val="172117376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="172083840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t>Use Case</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0062339259297652E-3"/>
+              <c:y val="0.91687147214706266"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172117376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172117376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles per Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.7446226196268443E-2"/>
+              <c:y val="0.24473900221931719"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172083840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25999385170401956"/>
+          <c:y val="0.13682262690136707"/>
+          <c:w val="0.58109366697261011"/>
+          <c:h val="7.4300583914400628E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$A$8" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$8" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$11" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$A$11" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2200,7 +2495,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2220,7 +2515,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$A$9" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$9" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2944,6 +3239,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3234,7 +3566,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3295,15 +3627,15 @@
       </c>
       <c r="F2" s="49">
         <f t="shared" ref="F2:F25" ca="1" si="0">INDIRECT("'"&amp;$B$8&amp;"'!"&amp;CELL("address",B2))</f>
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="G2" s="30">
         <f ca="1">INDIRECT("'"&amp;$B$8&amp;"'!"&amp;CELL("address",G2))</f>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H2" s="16">
         <f ca="1">INDIRECT("'"&amp;$B$8&amp;"'!"&amp;CELL("address",J2))</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="50" t="s">
         <v>19</v>
@@ -3330,15 +3662,15 @@
       </c>
       <c r="F3" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="G3" s="30">
         <f t="shared" ref="G3:G25" ca="1" si="1">INDIRECT("'"&amp;$B$8&amp;"'!"&amp;CELL("address",G3))</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" ref="H3:H25" ca="1" si="2">INDIRECT("'"&amp;$B$8&amp;"'!"&amp;CELL("address",J3))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="50" t="s">
         <v>20</v>
@@ -3365,15 +3697,15 @@
       </c>
       <c r="F4" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>21</v>
@@ -3400,15 +3732,15 @@
       </c>
       <c r="F5" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.22</v>
       </c>
       <c r="G5" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>19</v>
@@ -3435,7 +3767,7 @@
       </c>
       <c r="F6" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G6" s="30">
         <f t="shared" ca="1" si="1"/>
@@ -3443,7 +3775,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="50" t="s">
         <v>20</v>
@@ -3470,15 +3802,15 @@
       </c>
       <c r="F7" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>21</v>
@@ -3498,24 +3830,24 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="25" t="str">
         <f>INDEX(D1:D7,A8)</f>
-        <v>GCC 4.5.2</v>
+        <v>GCC 4.6.1-omit</v>
       </c>
       <c r="C8" s="10"/>
       <c r="F8" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
       <c r="G8" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="50" t="s">
         <v>19</v>
@@ -3535,25 +3867,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="21" t="str">
         <f>IF(A9,"Yes","No")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F9" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="G9" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="50" t="s">
         <v>20</v>
@@ -3583,15 +3915,15 @@
       </c>
       <c r="F10" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
       <c r="G10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" s="50" t="s">
         <v>21</v>
@@ -3611,25 +3943,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="23" t="str">
         <f>IF(A11,"Unified Syntax","Special Syntax")</f>
-        <v>Unified Syntax</v>
+        <v>Special Syntax</v>
       </c>
       <c r="F11" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.22</v>
       </c>
       <c r="G11" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="50" t="s">
         <v>19</v>
@@ -3650,15 +3982,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F12" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G12" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>20</v>
@@ -3679,15 +4011,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="G13" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>21</v>
@@ -3718,15 +4050,15 @@
       </c>
       <c r="F14" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>1.18</v>
+        <v>0.69</v>
       </c>
       <c r="G14" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>19</v>
@@ -3750,27 +4082,27 @@
       </c>
       <c r="B15" s="13">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" s="14">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="39">
         <f ca="1">INDEX($F$2:$F$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>0.53</v>
+        <v>0.22</v>
       </c>
       <c r="F15" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="G15" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>20</v>
@@ -3794,27 +4126,27 @@
       </c>
       <c r="B16" s="15">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="16">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D16" s="39">
         <f ca="1">INDEX($F$2:$F$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="G16" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>21</v>
@@ -3838,27 +4170,27 @@
       </c>
       <c r="B17" s="17">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="18">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D17" s="40">
         <f ca="1">INDEX($F$2:$F$25,1+(1-$A$9)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>0.12</v>
+        <v>2.33</v>
       </c>
       <c r="F17" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G17" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="50" t="s">
         <v>19</v>
@@ -3884,11 +4216,11 @@
       </c>
       <c r="G18" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>20</v>
@@ -3924,15 +4256,15 @@
       </c>
       <c r="F19" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>21</v>
@@ -3956,31 +4288,31 @@
       </c>
       <c r="B20" s="13">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-1)*6+$A$10*3+0)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" s="31">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-0)*6+$A$10*3+0)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D20" s="13">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-1)*6+$A$10*3+0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="31">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-0)*6+$A$10*3+0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
       <c r="G20" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>19</v>
@@ -4008,27 +4340,27 @@
       </c>
       <c r="C21" s="32">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-0)*6+$A$10*3+1)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="15">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-1)*6+$A$10*3+1)</f>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E21" s="32">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-0)*6+$A$10*3+1)</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F21" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5599999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="G21" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>20</v>
@@ -4052,31 +4384,31 @@
       </c>
       <c r="B22" s="17">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-1)*6+$A$10*3+2)</f>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C22" s="33">
         <f ca="1">INDEX($G$2:$G$25,1+(1-$A$9)*12+(1-0)*6+$A$10*3+2)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" s="17">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-1)*6+$A$10*3+2)</f>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E22" s="33">
         <f ca="1">INDEX($H$2:$H$25,1+(1-$A$9)*12+(1-0)*6+$A$10*3+2)</f>
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F22" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>4.67</v>
       </c>
       <c r="G22" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>21</v>
@@ -4097,15 +4429,15 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G23" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>19</v>
@@ -4141,15 +4473,15 @@
       </c>
       <c r="F24" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G24" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>20</v>
@@ -4173,31 +4505,31 @@
       </c>
       <c r="B25" s="13">
         <f ca="1">INDEX($G$2:$G$25,1+(1-1)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25" s="14">
         <f ca="1">INDEX($G$2:$G$25,1+(1-0)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" s="31">
         <f ca="1">INDEX($H$2:$H$25,1+(1-0)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="14">
         <f ca="1">INDEX($H$2:$H$25,1+(1-1)*12+(1-$A$11)*6+$A$10*3+0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I25" s="52" t="s">
         <v>21</v>
@@ -4221,19 +4553,19 @@
       </c>
       <c r="B26" s="15">
         <f ca="1">INDEX($G$2:$G$25,1+(1-1)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="16">
         <f ca="1">INDEX($G$2:$G$25,1+(1-0)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26" s="32">
         <f ca="1">INDEX($H$2:$H$25,1+(1-0)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="16">
         <f ca="1">INDEX($H$2:$H$25,1+(1-1)*12+(1-$A$11)*6+$A$10*3+1)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -4242,27 +4574,27 @@
       </c>
       <c r="B27" s="17">
         <f ca="1">INDEX($G$2:$G$25,1+(1-1)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="18">
         <f ca="1">INDEX($G$2:$G$25,1+(1-0)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="33">
         <f ca="1">INDEX($H$2:$H$25,1+(1-0)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="18">
         <f ca="1">INDEX($H$2:$H$25,1+(1-1)*12+(1-$A$11)*6+$A$10*3+2)</f>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N27" t="str">
         <f>D10&amp;"+"&amp;D9&amp;" Forwarding"</f>
-        <v>Open Encoding+No Forwarding</v>
+        <v>Open Encoding+Yes Forwarding</v>
       </c>
       <c r="S27" t="str">
         <f>D10&amp;"+"&amp;D11</f>
-        <v>Open Encoding+Unified Syntax</v>
+        <v>Open Encoding+Special Syntax</v>
       </c>
     </row>
   </sheetData>
@@ -10552,4 +10884,19 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/media/spreadsheets/Timing.xlsx
+++ b/media/spreadsheets/Timing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Visualization" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
   <si>
     <t>Test1</t>
   </si>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t>Mat/N</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>RND</t>
+  </si>
+  <si>
+    <t>Open Type Switch</t>
   </si>
 </sst>
 </file>
@@ -1222,11 +1234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="90807680"/>
-        <c:axId val="96446336"/>
+        <c:axId val="91691264"/>
+        <c:axId val="150533632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90807680"/>
+        <c:axId val="91691264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96446336"/>
+        <c:crossAx val="150533632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96446336"/>
+        <c:axId val="150533632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1307,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90807680"/>
+        <c:crossAx val="91691264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1647,11 +1659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136300032"/>
-        <c:axId val="136301952"/>
+        <c:axId val="173002752"/>
+        <c:axId val="187216640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136300032"/>
+        <c:axId val="173002752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136301952"/>
+        <c:crossAx val="187216640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1694,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136301952"/>
+        <c:axId val="187216640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1732,7 +1744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136300032"/>
+        <c:crossAx val="173002752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,11 +2084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142378112"/>
-        <c:axId val="142390784"/>
+        <c:axId val="208545280"/>
+        <c:axId val="208547200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142378112"/>
+        <c:axId val="208545280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142390784"/>
+        <c:crossAx val="208547200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2119,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142390784"/>
+        <c:axId val="208547200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2157,7 +2169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142378112"/>
+        <c:crossAx val="208545280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2260,9 +2272,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:srgbClr val="FF0000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2366,11 +2383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172083840"/>
-        <c:axId val="172117376"/>
+        <c:axId val="92307456"/>
+        <c:axId val="92309376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172083840"/>
+        <c:axId val="92307456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172117376"/>
+        <c:crossAx val="92309376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2413,7 +2430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172117376"/>
+        <c:axId val="92309376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2451,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172083840"/>
+        <c:crossAx val="92307456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2479,6 +2496,275 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1988407699037624E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.89074868766404192"/>
+          <c:h val="0.7986057100005356"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>REP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open Type Switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>REP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="92322816"/>
+        <c:axId val="92324992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92322816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3817318730855424E-3"/>
+              <c:y val="0.87615619476136908"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92324992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92324992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles per Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4412254659681409E-2"/>
+              <c:y val="0.15805560019283305"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92322816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32151326195069219"/>
+          <c:y val="5.3990036959665755E-2"/>
+          <c:w val="0.41035323021117331"/>
+          <c:h val="8.6532225222099871E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="153" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3243,16 +3529,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>379095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3273,7 +3559,306 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14341</cdr:x>
+      <cdr:y>0.60316</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21323</cdr:x>
+      <cdr:y>0.60316</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="564455" y="1126046"/>
+          <a:ext cx="274810" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43943</cdr:x>
+      <cdr:y>0.16196</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50924</cdr:x>
+      <cdr:y>0.16196</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1733093" y="303219"/>
+          <a:ext cx="275327" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73685</cdr:x>
+      <cdr:y>0.18021</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80667</cdr:x>
+      <cdr:y>0.18021</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2911455" y="336435"/>
+          <a:ext cx="275875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22764</cdr:x>
+      <cdr:y>0.65228</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29746</cdr:x>
+      <cdr:y>0.65228</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Straight Connector 5"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="897810" y="1221148"/>
+          <a:ext cx="275369" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52387</cdr:x>
+      <cdr:y>0.65008</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59369</cdr:x>
+      <cdr:y>0.65008</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2061940" y="1213634"/>
+          <a:ext cx="274810" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82142</cdr:x>
+      <cdr:y>0.31916</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89123</cdr:x>
+      <cdr:y>0.31916</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Connector 7"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3233091" y="595842"/>
+          <a:ext cx="274771" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3567,7 +4152,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10888,15 +11473,73 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/media/spreadsheets/Timing.xlsx
+++ b/media/spreadsheets/Timing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Visualization" sheetId="1" r:id="rId1"/>
@@ -1234,11 +1234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91691264"/>
-        <c:axId val="150533632"/>
+        <c:axId val="41171968"/>
+        <c:axId val="41182336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91691264"/>
+        <c:axId val="41171968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150533632"/>
+        <c:crossAx val="41182336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1281,7 +1281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150533632"/>
+        <c:axId val="41182336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1319,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91691264"/>
+        <c:crossAx val="41171968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,11 +1659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="173002752"/>
-        <c:axId val="187216640"/>
+        <c:axId val="41107840"/>
+        <c:axId val="41109760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173002752"/>
+        <c:axId val="41107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187216640"/>
+        <c:crossAx val="41109760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187216640"/>
+        <c:axId val="41109760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1744,7 +1744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173002752"/>
+        <c:crossAx val="41107840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,11 +2084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208545280"/>
-        <c:axId val="208547200"/>
+        <c:axId val="41155200"/>
+        <c:axId val="43524864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208545280"/>
+        <c:axId val="41155200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208547200"/>
+        <c:crossAx val="43524864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2131,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208547200"/>
+        <c:axId val="43524864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2169,7 +2169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208545280"/>
+        <c:crossAx val="41155200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2383,11 +2383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92307456"/>
-        <c:axId val="92309376"/>
+        <c:axId val="43664512"/>
+        <c:axId val="43666432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92307456"/>
+        <c:axId val="43664512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92309376"/>
+        <c:crossAx val="43666432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2430,7 +2430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92309376"/>
+        <c:axId val="43666432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2468,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92307456"/>
+        <c:crossAx val="43664512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2651,11 +2651,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92322816"/>
-        <c:axId val="92324992"/>
+        <c:axId val="43705088"/>
+        <c:axId val="43707008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92322816"/>
+        <c:axId val="43705088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,7 +2690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92324992"/>
+        <c:crossAx val="43707008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2698,7 +2698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92324992"/>
+        <c:axId val="43707008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2736,7 +2736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92322816"/>
+        <c:crossAx val="43705088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4151,7 +4151,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
@@ -11475,7 +11475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
